--- a/optimized_hubs.xlsx
+++ b/optimized_hubs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,17 +460,17 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W-B</t>
+          <t>W-C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>9</v>
@@ -479,39 +479,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W-C</t>
+          <t>W-D</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W-D</t>
+          <t>W-F</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W-F</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
         <v>5</v>
       </c>
     </row>

--- a/optimized_hubs.xlsx
+++ b/optimized_hubs.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>横坐标(X)</t>
+          <t>横坐标 (X)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>纵坐标(Y)</t>
+          <t>纵坐标 (Y)</t>
         </is>
       </c>
     </row>
